--- a/単体テストver.3.xlsx
+++ b/単体テストver.3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\workspace-temma\Programming-exam\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1FCE83E-AE5B-4E30-B448-65A36497D80C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A1BC6E9-51F9-4DAE-872F-933B58C5AC19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21840" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="118">
   <si>
     <t>項目番号</t>
     <rPh sb="0" eb="2">
@@ -895,6 +895,51 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>表示しないように変更</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>変更を選択できる（初期値は空欄）</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>ショキチ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>クウラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>update.phpで変更するを選択した場合はPOSTされた値が表示される</t>
+    <rPh sb="11" eb="13">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -1046,7 +1091,7 @@
       <alignment wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1155,6 +1200,15 @@
     <xf numFmtId="177" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1164,14 +1218,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="177" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="56" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -10173,13 +10233,13 @@
       <c r="A4" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="38"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="41"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
@@ -11449,7 +11509,7 @@
   <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E44" sqref="E43:E44"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
@@ -11479,13 +11539,13 @@
       <c r="A4" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="38"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="41"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
@@ -11583,7 +11643,7 @@
       <c r="F9" s="14">
         <v>45188</v>
       </c>
-      <c r="G9" s="39" t="s">
+      <c r="G9" s="36" t="s">
         <v>92</v>
       </c>
       <c r="H9" s="17"/>
@@ -11674,7 +11734,7 @@
         <v>91</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>58</v>
+        <v>117</v>
       </c>
       <c r="F13" s="14">
         <v>45188</v>
@@ -11715,7 +11775,7 @@
       <c r="B15" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="41" t="s">
+      <c r="C15" s="38" t="s">
         <v>17</v>
       </c>
       <c r="D15" s="13" t="s">
@@ -12891,13 +12951,13 @@
       <c r="A4" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="38"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="41"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
@@ -12995,7 +13055,7 @@
       <c r="F9" s="14">
         <v>45188</v>
       </c>
-      <c r="G9" s="39" t="s">
+      <c r="G9" s="36" t="s">
         <v>31</v>
       </c>
       <c r="H9" s="17"/>
@@ -14159,13 +14219,13 @@
       <c r="A4" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="38"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="41"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
@@ -15763,13 +15823,13 @@
       <c r="A4" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="38"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="41"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
@@ -17223,13 +17283,13 @@
       <c r="A4" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="38"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="41"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
@@ -18480,13 +18540,13 @@
       <c r="A4" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="38"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="41"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
@@ -19766,7 +19826,7 @@
   <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19:F21"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
@@ -19796,13 +19856,13 @@
       <c r="A4" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="38"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="41"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
@@ -19954,28 +20014,30 @@
       <c r="H11" s="20"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A12" s="18">
+      <c r="A12" s="42">
         <v>6</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="21" t="s">
+      <c r="D12" s="45" t="s">
         <v>91</v>
       </c>
-      <c r="E12" s="21" t="s">
+      <c r="E12" s="45" t="s">
         <v>93</v>
       </c>
-      <c r="F12" s="26">
+      <c r="F12" s="46">
         <v>45188</v>
       </c>
-      <c r="G12" s="22" t="s">
+      <c r="G12" s="23" t="s">
         <v>92</v>
       </c>
-      <c r="H12" s="20"/>
+      <c r="H12" s="44" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A13" s="18">
@@ -21208,13 +21270,13 @@
       <c r="A4" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="38"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="41"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
@@ -22488,13 +22550,13 @@
       <c r="A4" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="38"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="41"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
@@ -22592,7 +22654,7 @@
       <c r="F9" s="14">
         <v>45188</v>
       </c>
-      <c r="G9" s="39" t="s">
+      <c r="G9" s="36" t="s">
         <v>31</v>
       </c>
       <c r="H9" s="17"/>
@@ -23750,7 +23812,7 @@
   <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:H7"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.15"/>
@@ -23780,13 +23842,13 @@
       <c r="A4" s="24" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="36" t="s">
+      <c r="B4" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="38"/>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="41"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="1"/>
@@ -23884,7 +23946,7 @@
       <c r="F9" s="29">
         <v>45188</v>
       </c>
-      <c r="G9" s="40" t="s">
+      <c r="G9" s="37" t="s">
         <v>92</v>
       </c>
       <c r="H9" s="33"/>
@@ -23975,7 +24037,7 @@
         <v>91</v>
       </c>
       <c r="E13" s="30" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="F13" s="29">
         <v>45188</v>
